--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23546d0de25dfd14/Documents/Mars/OnBoarding Task/Competition Task/marsframework-master/MarsFramework/ExcelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{AF43E03F-E558-493D-828D-7FD26F1D02DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8797BED8-C69B-42C4-A6D8-1A7F7ACAB499}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{AF43E03F-E558-493D-828D-7FD26F1D02DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E1FF7899-9577-496C-9CC4-E84CECE75B42}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Url</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Test@123</t>
+  </si>
+  <si>
+    <t>SKillTitle</t>
   </si>
 </sst>
 </file>
@@ -799,9 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B2FDD2-1D4C-46B4-BC54-C3B730D75101}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -811,7 +812,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
